--- a/Unity/Assets/Config/Excel/BuildingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuildingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonsConfigProto" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/BuildingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuildingConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="DungeonsConfigProto" sheetId="1" r:id="rId1"/>
+    <sheet name="BuildingConfigProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -41,10 +41,10 @@
     <t>Limit</t>
   </si>
   <si>
-    <t>Produce</t>
+    <t>*Produce</t>
   </si>
   <si>
-    <t>UpgradeConsume</t>
+    <t>*UpgradeConsume</t>
   </si>
   <si>
     <t>##type</t>
@@ -56,13 +56,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=|),int</t>
+    <t>map,int,BuildingProduce</t>
+  </si>
+  <si>
+    <t>map,int,BuildingUpgrade</t>
   </si>
   <si>
     <t>##group</t>
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>$key</t>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
+    <t>CurrencyValue</t>
   </si>
   <si>
     <t>##</t>
@@ -86,91 +98,31 @@
     <t>80001建筑</t>
   </si>
   <si>
-    <t>10|20|30|40</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4000</t>
+    <t>银币</t>
   </si>
   <si>
     <t>80002建筑</t>
   </si>
   <si>
-    <t>10|20|30|41</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4001</t>
-  </si>
-  <si>
     <t>80003建筑</t>
-  </si>
-  <si>
-    <t>10|20|30|42</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4002</t>
   </si>
   <si>
     <t>80004建筑</t>
   </si>
   <si>
-    <t>10|20|30|43</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4003</t>
-  </si>
-  <si>
     <t>80005建筑</t>
-  </si>
-  <si>
-    <t>10|20|30|44</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4004</t>
   </si>
   <si>
     <t>80006建筑</t>
   </si>
   <si>
-    <t>10|20|30|45|50</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4005|5000</t>
-  </si>
-  <si>
     <t>80007建筑</t>
-  </si>
-  <si>
-    <t>10|20|30|45|51</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4005|5001</t>
   </si>
   <si>
     <t>80008建筑</t>
   </si>
   <si>
-    <t>10|20|30|45|52</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4005|5002</t>
-  </si>
-  <si>
     <t>80009建筑</t>
-  </si>
-  <si>
-    <t>10|20|30|45|53</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4005|5003</t>
-  </si>
-  <si>
-    <t>80010建筑</t>
-  </si>
-  <si>
-    <t>10|20|30|45|54</t>
-  </si>
-  <si>
-    <t>1000|2000|3000|4005|5004</t>
   </si>
 </sst>
 </file>
@@ -354,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +642,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,16 +666,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -732,88 +690,89 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,11 +783,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1182,331 +1153,2705 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="18.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:9">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:10">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="15">
+        <v>80001</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="6">
+        <f>E6*5000+10000</f>
+        <v>15000</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7">
+        <f>H6*10000+10000</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G70" si="0">E7*5000+10000</f>
+        <v>20000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J70" si="1">H7*10000+10000</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6">
         <v>9</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10">
-        <v>80001</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="H16" s="6">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="15">
+        <v>80002</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="10">
-        <v>80002</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10">
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="6">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="6">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>7</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="6">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="6">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H25" s="6">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="6">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="15">
         <v>80003</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>4</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H33" s="6">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="6">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="6">
+        <v>8</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H35" s="6">
+        <v>8</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="6">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="6">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H37" s="6">
+        <v>10</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="6">
+        <v>11</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="H38" s="6">
+        <v>11</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="15">
+        <v>80004</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="10">
-        <v>80004</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="6">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H42" s="6">
+        <v>4</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="6">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>5</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="6">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H44" s="6">
+        <v>6</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="6">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H45" s="6">
+        <v>7</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="6">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H46" s="6">
+        <v>8</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="6">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H47" s="6">
+        <v>9</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="6">
+        <v>10</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H48" s="6">
+        <v>10</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="6">
+        <v>11</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="H49" s="6">
+        <v>11</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="15">
+        <v>80005</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D50" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="6">
+        <v>3</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H52" s="6">
+        <v>3</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H53" s="6">
+        <v>4</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="6">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H54" s="6">
+        <v>5</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="6">
+        <v>6</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H55" s="6">
+        <v>6</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="6">
+        <v>7</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H56" s="6">
+        <v>7</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="6">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H57" s="6">
+        <v>8</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="6">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H58" s="6">
+        <v>9</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="6">
+        <v>10</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H59" s="6">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="6">
+        <v>11</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="H60" s="6">
+        <v>11</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="15">
+        <v>80006</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="6">
+        <v>3</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>3</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="6">
+        <v>4</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="H64" s="6">
+        <v>4</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="6">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H65" s="6">
+        <v>5</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="6">
+        <v>6</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="H66" s="6">
+        <v>6</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="6">
+        <v>7</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="H67" s="6">
+        <v>7</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="6">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H68" s="6">
+        <v>8</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="6">
+        <v>9</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="H69" s="6">
+        <v>9</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="6">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H70" s="6">
+        <v>10</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="6">
+        <v>11</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" ref="G71:G104" si="2">E71*5000+10000</f>
+        <v>65000</v>
+      </c>
+      <c r="H71" s="6">
+        <v>11</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" ref="J71:J104" si="3">H71*10000+10000</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="15">
+        <v>80007</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="10">
-        <v>80005</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="H73" s="6">
+        <v>2</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="6">
+        <v>3</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="H74" s="6">
+        <v>3</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="6">
+        <v>4</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="H75" s="6">
+        <v>4</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="6">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H76" s="6">
+        <v>5</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="6">
+        <v>6</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="H77" s="6">
+        <v>6</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="6">
+        <v>7</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+      <c r="H78" s="6">
+        <v>7</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="6">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="H79" s="6">
+        <v>8</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="6">
+        <v>9</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="H80" s="6">
+        <v>9</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="7">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="6">
+        <v>10</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="H81" s="6">
+        <v>10</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="7">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="6">
+        <v>11</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="H82" s="6">
+        <v>11</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="7">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="15">
+        <v>80008</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D83" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="7">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="7">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="6">
+        <v>3</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="H85" s="6">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="7">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="6">
+        <v>4</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="H86" s="6">
+        <v>4</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="7">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H87" s="6">
+        <v>5</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="7">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="6">
+        <v>6</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="H88" s="6">
+        <v>6</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="7">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="6">
+        <v>7</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+      <c r="H89" s="6">
+        <v>7</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="7">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="6">
+        <v>8</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="H90" s="6">
+        <v>8</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="7">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="6">
+        <v>9</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="H91" s="6">
+        <v>9</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="7">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="6">
+        <v>10</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="H92" s="6">
+        <v>10</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="7">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="6">
+        <v>11</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="H93" s="6">
+        <v>11</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="7">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="15">
+        <v>80009</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10">
-        <v>80006</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="D94" s="15">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="7">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="10">
-        <v>80007</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="F95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="H95" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="10">
-        <v>80008</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="10">
-        <v>80009</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10">
-        <v>80010</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="10"/>
+      <c r="I95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="7">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="6">
+        <v>3</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="H96" s="6">
+        <v>3</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="7">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="6">
+        <v>4</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="H97" s="6">
+        <v>4</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="7">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="6">
+        <v>5</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H98" s="6">
+        <v>5</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="7">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="6">
+        <v>6</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="H99" s="6">
+        <v>6</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="7">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="6">
+        <v>7</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+      <c r="H100" s="6">
+        <v>7</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="7">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="6">
+        <v>8</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="H101" s="6">
+        <v>8</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="7">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="6">
+        <v>9</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="2"/>
+        <v>55000</v>
+      </c>
+      <c r="H102" s="6">
+        <v>9</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="7">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="6">
+        <v>10</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="H103" s="6">
+        <v>10</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" s="7">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="6">
+        <v>11</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="H104" s="6">
+        <v>11</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" s="7">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="B61:B71"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="B83:B93"/>
+    <mergeCell ref="B94:B104"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="C39:C49"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="C61:C71"/>
+    <mergeCell ref="C72:C82"/>
+    <mergeCell ref="C83:C93"/>
+    <mergeCell ref="C94:C104"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="D17:D27"/>
+    <mergeCell ref="D28:D38"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="D50:D60"/>
+    <mergeCell ref="D61:D71"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="D83:D93"/>
+    <mergeCell ref="D94:D104"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/BuildingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuildingConfig.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/Unity/Assets/Config/Excel/BuildingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuildingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingConfigProto" sheetId="1" r:id="rId1"/>
@@ -1230,9 +1230,6 @@
         <v>12</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
